--- a/Combined Finalize logic tree/Subaru_Impreza Outback Forester legacy_Coolant leak.xlsx
+++ b/Combined Finalize logic tree/Subaru_Impreza Outback Forester legacy_Coolant leak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sahil\Documents\Shreyash_files\Projects\Amberflux RaH Project\Database\Combined Finalize logic tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0EBD92-EA1E-423B-AC4A-44A35D627007}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6101AD-8173-4371-910F-9A7C9667207F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{FD2D2D68-9630-4025-9DFF-9718CDED2B1C}"/>
   </bookViews>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3682B1-F553-40C8-96BB-422AFBEF843B}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
